--- a/comb - GA.xlsx
+++ b/comb - GA.xlsx
@@ -3281,7 +3281,9 @@
       <c r="E142" t="n">
         <v>0.5</v>
       </c>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" t="n">
+        <v>1124852.474812078</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3299,7 +3301,9 @@
       <c r="E143" t="n">
         <v>1</v>
       </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>1157643.248259577</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3317,7 +3321,9 @@
       <c r="E144" t="n">
         <v>0.7</v>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>1153010.899355374</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3335,7 +3341,9 @@
       <c r="E145" t="n">
         <v>0.5</v>
       </c>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>1190047.561027071</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3353,7 +3361,9 @@
       <c r="E146" t="n">
         <v>1</v>
       </c>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>1219976.8196189</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3371,7 +3381,9 @@
       <c r="E147" t="n">
         <v>0.7</v>
       </c>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>1226632.357308079</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3389,7 +3401,9 @@
       <c r="E148" t="n">
         <v>0.5</v>
       </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>1252480.978537259</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3407,7 +3421,9 @@
       <c r="E149" t="n">
         <v>1</v>
       </c>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" t="n">
+        <v>1059304.335123613</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3425,7 +3441,9 @@
       <c r="E150" t="n">
         <v>0.7</v>
       </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>1194816.411583298</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3443,7 +3461,9 @@
       <c r="E151" t="n">
         <v>0.5</v>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>1147929.040654697</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3461,7 +3481,9 @@
       <c r="E152" t="n">
         <v>1</v>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>1134910.592286728</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3479,7 +3501,9 @@
       <c r="E153" t="n">
         <v>0.7</v>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>1207734.274829573</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3497,7 +3521,9 @@
       <c r="E154" t="n">
         <v>0.5</v>
       </c>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" t="n">
+        <v>1164575.875220658</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3515,7 +3541,9 @@
       <c r="E155" t="n">
         <v>1</v>
       </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>1201788.99500087</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3533,7 +3561,9 @@
       <c r="E156" t="n">
         <v>0.7</v>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>1211904.200480778</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3551,7 +3581,9 @@
       <c r="E157" t="n">
         <v>0.5</v>
       </c>
-      <c r="F157" t="inlineStr"/>
+      <c r="F157" t="n">
+        <v>1312559.204996761</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3569,7 +3601,9 @@
       <c r="E158" t="n">
         <v>1</v>
       </c>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" t="n">
+        <v>1154300.86317715</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3587,7 +3621,9 @@
       <c r="E159" t="n">
         <v>0.7</v>
       </c>
-      <c r="F159" t="inlineStr"/>
+      <c r="F159" t="n">
+        <v>1172979.815046475</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3605,7 +3641,9 @@
       <c r="E160" t="n">
         <v>0.5</v>
       </c>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>1225136.629938379</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3623,7 +3661,9 @@
       <c r="E161" t="n">
         <v>1</v>
       </c>
-      <c r="F161" t="inlineStr"/>
+      <c r="F161" t="n">
+        <v>1122050.911735889</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3641,7 +3681,9 @@
       <c r="E162" t="n">
         <v>0.7</v>
       </c>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" t="n">
+        <v>1145263.739498809</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3659,7 +3701,9 @@
       <c r="E163" t="n">
         <v>0.5</v>
       </c>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" t="n">
+        <v>1187284.621968318</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3677,7 +3721,9 @@
       <c r="E164" t="n">
         <v>1</v>
       </c>
-      <c r="F164" t="inlineStr"/>
+      <c r="F164" t="n">
+        <v>1282517.124243282</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3695,7 +3741,9 @@
       <c r="E165" t="n">
         <v>0.7</v>
       </c>
-      <c r="F165" t="inlineStr"/>
+      <c r="F165" t="n">
+        <v>1260664.776192131</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3713,7 +3761,9 @@
       <c r="E166" t="n">
         <v>0.5</v>
       </c>
-      <c r="F166" t="inlineStr"/>
+      <c r="F166" t="n">
+        <v>1228367.996594533</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3731,7 +3781,9 @@
       <c r="E167" t="n">
         <v>1</v>
       </c>
-      <c r="F167" t="inlineStr"/>
+      <c r="F167" t="n">
+        <v>1121302.14879632</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3749,7 +3801,9 @@
       <c r="E168" t="n">
         <v>0.7</v>
       </c>
-      <c r="F168" t="inlineStr"/>
+      <c r="F168" t="n">
+        <v>1186455.750677414</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3767,7 +3821,9 @@
       <c r="E169" t="n">
         <v>0.5</v>
       </c>
-      <c r="F169" t="inlineStr"/>
+      <c r="F169" t="n">
+        <v>1187830.429626244</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3785,7 +3841,9 @@
       <c r="E170" t="n">
         <v>1</v>
       </c>
-      <c r="F170" t="inlineStr"/>
+      <c r="F170" t="n">
+        <v>1179279.192931876</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3803,7 +3861,9 @@
       <c r="E171" t="n">
         <v>0.7</v>
       </c>
-      <c r="F171" t="inlineStr"/>
+      <c r="F171" t="n">
+        <v>1227553.845725086</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3821,7 +3881,9 @@
       <c r="E172" t="n">
         <v>0.5</v>
       </c>
-      <c r="F172" t="inlineStr"/>
+      <c r="F172" t="n">
+        <v>1278462.305781118</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3839,7 +3901,9 @@
       <c r="E173" t="n">
         <v>1</v>
       </c>
-      <c r="F173" t="inlineStr"/>
+      <c r="F173" t="n">
+        <v>1230745.667462201</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3857,7 +3921,9 @@
       <c r="E174" t="n">
         <v>0.7</v>
       </c>
-      <c r="F174" t="inlineStr"/>
+      <c r="F174" t="n">
+        <v>1266282.649932012</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3875,7 +3941,9 @@
       <c r="E175" t="n">
         <v>0.5</v>
       </c>
-      <c r="F175" t="inlineStr"/>
+      <c r="F175" t="n">
+        <v>1232204.762962827</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3893,7 +3961,9 @@
       <c r="E176" t="n">
         <v>1</v>
       </c>
-      <c r="F176" t="inlineStr"/>
+      <c r="F176" t="n">
+        <v>1153302.509140976</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3911,7 +3981,9 @@
       <c r="E177" t="n">
         <v>0.7</v>
       </c>
-      <c r="F177" t="inlineStr"/>
+      <c r="F177" t="n">
+        <v>1055028.905396346</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3929,7 +4001,9 @@
       <c r="E178" t="n">
         <v>0.5</v>
       </c>
-      <c r="F178" t="inlineStr"/>
+      <c r="F178" t="n">
+        <v>1262669.226232514</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3947,7 +4021,9 @@
       <c r="E179" t="n">
         <v>1</v>
       </c>
-      <c r="F179" t="inlineStr"/>
+      <c r="F179" t="n">
+        <v>1108550.459556459</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3965,7 +4041,9 @@
       <c r="E180" t="n">
         <v>0.7</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>1180029.457999953</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3983,7 +4061,9 @@
       <c r="E181" t="n">
         <v>0.5</v>
       </c>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>1270373.670570275</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4001,7 +4081,9 @@
       <c r="E182" t="n">
         <v>1</v>
       </c>
-      <c r="F182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>1317043.050973115</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4019,7 +4101,9 @@
       <c r="E183" t="n">
         <v>0.7</v>
       </c>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>1221024.120095262</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4037,7 +4121,9 @@
       <c r="E184" t="n">
         <v>0.5</v>
       </c>
-      <c r="F184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>1311424.847909027</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4055,7 +4141,9 @@
       <c r="E185" t="n">
         <v>1</v>
       </c>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>1245518.122368636</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4073,7 +4161,9 @@
       <c r="E186" t="n">
         <v>0.7</v>
       </c>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>1219056.103016212</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4091,7 +4181,9 @@
       <c r="E187" t="n">
         <v>0.5</v>
       </c>
-      <c r="F187" t="inlineStr"/>
+      <c r="F187" t="n">
+        <v>1155377.73915877</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4109,7 +4201,9 @@
       <c r="E188" t="n">
         <v>1</v>
       </c>
-      <c r="F188" t="inlineStr"/>
+      <c r="F188" t="n">
+        <v>1198419.217212124</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4127,7 +4221,9 @@
       <c r="E189" t="n">
         <v>0.7</v>
       </c>
-      <c r="F189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>1207648.375638219</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4145,7 +4241,9 @@
       <c r="E190" t="n">
         <v>0.5</v>
       </c>
-      <c r="F190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>1208601.46622792</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4163,7 +4261,9 @@
       <c r="E191" t="n">
         <v>1</v>
       </c>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>1258810.972715248</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4181,7 +4281,9 @@
       <c r="E192" t="n">
         <v>0.7</v>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>1276739.907183614</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4199,7 +4301,9 @@
       <c r="E193" t="n">
         <v>0.5</v>
       </c>
-      <c r="F193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>1311974.63656583</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4217,7 +4321,9 @@
       <c r="E194" t="n">
         <v>1</v>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>1212609.169066967</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4235,7 +4341,9 @@
       <c r="E195" t="n">
         <v>0.7</v>
       </c>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>1274373.613799076</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4253,7 +4361,9 @@
       <c r="E196" t="n">
         <v>0.5</v>
       </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>1205160.641724503</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4271,7 +4381,9 @@
       <c r="E197" t="n">
         <v>1</v>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>1179479.586582877</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4289,7 +4401,9 @@
       <c r="E198" t="n">
         <v>0.7</v>
       </c>
-      <c r="F198" t="inlineStr"/>
+      <c r="F198" t="n">
+        <v>1229006.444483538</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4307,7 +4421,9 @@
       <c r="E199" t="n">
         <v>0.5</v>
       </c>
-      <c r="F199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>1261303.187364467</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -4325,7 +4441,9 @@
       <c r="E200" t="n">
         <v>1</v>
       </c>
-      <c r="F200" t="inlineStr"/>
+      <c r="F200" t="n">
+        <v>1230004.859289018</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -4343,7 +4461,9 @@
       <c r="E201" t="n">
         <v>0.7</v>
       </c>
-      <c r="F201" t="inlineStr"/>
+      <c r="F201" t="n">
+        <v>1251734.426231517</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -4361,7 +4481,9 @@
       <c r="E202" t="n">
         <v>0.5</v>
       </c>
-      <c r="F202" t="inlineStr"/>
+      <c r="F202" t="n">
+        <v>1225360.575132544</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -4379,7 +4501,9 @@
       <c r="E203" t="n">
         <v>1</v>
       </c>
-      <c r="F203" t="inlineStr"/>
+      <c r="F203" t="n">
+        <v>1099361.926784095</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -4397,7 +4521,9 @@
       <c r="E204" t="n">
         <v>0.7</v>
       </c>
-      <c r="F204" t="inlineStr"/>
+      <c r="F204" t="n">
+        <v>1196364.691740089</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -4415,7 +4541,9 @@
       <c r="E205" t="n">
         <v>0.5</v>
       </c>
-      <c r="F205" t="inlineStr"/>
+      <c r="F205" t="n">
+        <v>1155996.592310134</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -4433,7 +4561,9 @@
       <c r="E206" t="n">
         <v>1</v>
       </c>
-      <c r="F206" t="inlineStr"/>
+      <c r="F206" t="n">
+        <v>1192560.190999744</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -4451,7 +4581,9 @@
       <c r="E207" t="n">
         <v>0.7</v>
       </c>
-      <c r="F207" t="inlineStr"/>
+      <c r="F207" t="n">
+        <v>1055926.424451593</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -4469,7 +4601,9 @@
       <c r="E208" t="n">
         <v>0.5</v>
       </c>
-      <c r="F208" t="inlineStr"/>
+      <c r="F208" t="n">
+        <v>1229763.45963438</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -4487,7 +4621,9 @@
       <c r="E209" t="n">
         <v>1</v>
       </c>
-      <c r="F209" t="inlineStr"/>
+      <c r="F209" t="n">
+        <v>1287735.382893228</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -4505,7 +4641,9 @@
       <c r="E210" t="n">
         <v>0.7</v>
       </c>
-      <c r="F210" t="inlineStr"/>
+      <c r="F210" t="n">
+        <v>1346779.848399537</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4523,7 +4661,9 @@
       <c r="E211" t="n">
         <v>0.5</v>
       </c>
-      <c r="F211" t="inlineStr"/>
+      <c r="F211" t="n">
+        <v>1336739.909361645</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4541,7 +4681,9 @@
       <c r="E212" t="n">
         <v>1</v>
       </c>
-      <c r="F212" t="inlineStr"/>
+      <c r="F212" t="n">
+        <v>1162477.456608684</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4559,7 +4701,9 @@
       <c r="E213" t="n">
         <v>0.7</v>
       </c>
-      <c r="F213" t="inlineStr"/>
+      <c r="F213" t="n">
+        <v>1203087.589550979</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4577,7 +4721,9 @@
       <c r="E214" t="n">
         <v>0.5</v>
       </c>
-      <c r="F214" t="inlineStr"/>
+      <c r="F214" t="n">
+        <v>1182760.969502868</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -4595,7 +4741,9 @@
       <c r="E215" t="n">
         <v>1</v>
       </c>
-      <c r="F215" t="inlineStr"/>
+      <c r="F215" t="n">
+        <v>1192915.127754594</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -4613,7 +4761,9 @@
       <c r="E216" t="n">
         <v>0.7</v>
       </c>
-      <c r="F216" t="inlineStr"/>
+      <c r="F216" t="n">
+        <v>1197251.295551714</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4631,7 +4781,9 @@
       <c r="E217" t="n">
         <v>0.5</v>
       </c>
-      <c r="F217" t="inlineStr"/>
+      <c r="F217" t="n">
+        <v>1295586.905505533</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -4649,7 +4801,9 @@
       <c r="E218" t="n">
         <v>1</v>
       </c>
-      <c r="F218" t="inlineStr"/>
+      <c r="F218" t="n">
+        <v>1169202.625059118</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4667,7 +4821,9 @@
       <c r="E219" t="n">
         <v>0.7</v>
       </c>
-      <c r="F219" t="inlineStr"/>
+      <c r="F219" t="n">
+        <v>1245850.388585617</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4685,7 +4841,9 @@
       <c r="E220" t="n">
         <v>0.5</v>
       </c>
-      <c r="F220" t="inlineStr"/>
+      <c r="F220" t="n">
+        <v>1217460.885911659</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4703,7 +4861,9 @@
       <c r="E221" t="n">
         <v>1</v>
       </c>
-      <c r="F221" t="inlineStr"/>
+      <c r="F221" t="n">
+        <v>1226550.504057497</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4721,7 +4881,9 @@
       <c r="E222" t="n">
         <v>0.7</v>
       </c>
-      <c r="F222" t="inlineStr"/>
+      <c r="F222" t="n">
+        <v>1194218.252533143</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -4739,7 +4901,9 @@
       <c r="E223" t="n">
         <v>0.5</v>
       </c>
-      <c r="F223" t="inlineStr"/>
+      <c r="F223" t="n">
+        <v>1156167.361675334</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4757,7 +4921,9 @@
       <c r="E224" t="n">
         <v>1</v>
       </c>
-      <c r="F224" t="inlineStr"/>
+      <c r="F224" t="n">
+        <v>1194719.660907634</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -4775,7 +4941,9 @@
       <c r="E225" t="n">
         <v>0.7</v>
       </c>
-      <c r="F225" t="inlineStr"/>
+      <c r="F225" t="n">
+        <v>1267932.441275621</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -4793,7 +4961,9 @@
       <c r="E226" t="n">
         <v>0.5</v>
       </c>
-      <c r="F226" t="inlineStr"/>
+      <c r="F226" t="n">
+        <v>1227127.615362497</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -4811,7 +4981,9 @@
       <c r="E227" t="n">
         <v>1</v>
       </c>
-      <c r="F227" t="inlineStr"/>
+      <c r="F227" t="n">
+        <v>1265246.216746702</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -4829,7 +5001,9 @@
       <c r="E228" t="n">
         <v>0.7</v>
       </c>
-      <c r="F228" t="inlineStr"/>
+      <c r="F228" t="n">
+        <v>1181833.185357994</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -4847,7 +5021,9 @@
       <c r="E229" t="n">
         <v>0.5</v>
       </c>
-      <c r="F229" t="inlineStr"/>
+      <c r="F229" t="n">
+        <v>1322820.206328645</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -4865,7 +5041,9 @@
       <c r="E230" t="n">
         <v>1</v>
       </c>
-      <c r="F230" t="inlineStr"/>
+      <c r="F230" t="n">
+        <v>1172861.814913439</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -4883,7 +5061,9 @@
       <c r="E231" t="n">
         <v>0.7</v>
       </c>
-      <c r="F231" t="inlineStr"/>
+      <c r="F231" t="n">
+        <v>1199774.564820908</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -4901,7 +5081,9 @@
       <c r="E232" t="n">
         <v>0.5</v>
       </c>
-      <c r="F232" t="inlineStr"/>
+      <c r="F232" t="n">
+        <v>1218418.907463979</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -4919,7 +5101,9 @@
       <c r="E233" t="n">
         <v>1</v>
       </c>
-      <c r="F233" t="inlineStr"/>
+      <c r="F233" t="n">
+        <v>1122079.003208117</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -4937,7 +5121,9 @@
       <c r="E234" t="n">
         <v>0.7</v>
       </c>
-      <c r="F234" t="inlineStr"/>
+      <c r="F234" t="n">
+        <v>1248058.132373122</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -4955,7 +5141,9 @@
       <c r="E235" t="n">
         <v>0.5</v>
       </c>
-      <c r="F235" t="inlineStr"/>
+      <c r="F235" t="n">
+        <v>1228201.757738289</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -4973,7 +5161,9 @@
       <c r="E236" t="n">
         <v>1</v>
       </c>
-      <c r="F236" t="inlineStr"/>
+      <c r="F236" t="n">
+        <v>1242612.753282457</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -4991,7 +5181,9 @@
       <c r="E237" t="n">
         <v>0.7</v>
       </c>
-      <c r="F237" t="inlineStr"/>
+      <c r="F237" t="n">
+        <v>1362867.003084942</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5009,7 +5201,9 @@
       <c r="E238" t="n">
         <v>0.5</v>
       </c>
-      <c r="F238" t="inlineStr"/>
+      <c r="F238" t="n">
+        <v>1310881.659757257</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5027,7 +5221,9 @@
       <c r="E239" t="n">
         <v>1</v>
       </c>
-      <c r="F239" t="inlineStr"/>
+      <c r="F239" t="n">
+        <v>1270213.771162932</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5045,7 +5241,9 @@
       <c r="E240" t="n">
         <v>0.7</v>
       </c>
-      <c r="F240" t="inlineStr"/>
+      <c r="F240" t="n">
+        <v>1257538.562631838</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5063,7 +5261,9 @@
       <c r="E241" t="n">
         <v>0.5</v>
       </c>
-      <c r="F241" t="inlineStr"/>
+      <c r="F241" t="n">
+        <v>1222924.629032813</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5081,7 +5281,9 @@
       <c r="E242" t="n">
         <v>1</v>
       </c>
-      <c r="F242" t="inlineStr"/>
+      <c r="F242" t="n">
+        <v>1247424.522025685</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5099,7 +5301,9 @@
       <c r="E243" t="n">
         <v>0.7</v>
       </c>
-      <c r="F243" t="inlineStr"/>
+      <c r="F243" t="n">
+        <v>1250329.692470113</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -5117,7 +5321,9 @@
       <c r="E244" t="n">
         <v>0.5</v>
       </c>
-      <c r="F244" t="inlineStr"/>
+      <c r="F244" t="n">
+        <v>1219795.515913371</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
